--- a/src/test/java/ApachePOI/ExcelFiles/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/ExcelFiles/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="6">
   <si>
     <t>Create and Delete citizenship from excel</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Create an Exam and Delete</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>Testing database of States functionality using JDBC</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -215,6 +224,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/ExcelFiles/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/ExcelFiles/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>Create and Delete citizenship from excel</t>
   </si>
@@ -30,6 +30,18 @@
   </si>
   <si>
     <t>Testing database of States functionality using JDBC</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Create a country</t>
+  </si>
+  <si>
+    <t>Create country</t>
+  </si>
+  <si>
+    <t>Create country 2</t>
   </si>
 </sst>
 </file>
@@ -74,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -384,6 +396,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
